--- a/프로젝트/개발차트 0527 계획서.xlsx
+++ b/프로젝트/개발차트 0527 계획서.xlsx
@@ -227,7 +227,7 @@
 대학생이나, 젊은 "20~30대 청년" 사용자들을 타겟으로 하고 있다.
 그런 사용자들의 니즈를 충족시켜주는 어플이다.
 시장은 어떤가?
-현재 앱 마켓(플레이스토어, 애플스토어 etc).. 등에도 
+현재 앱 마켓(플레이스토어, 애플스토어 etc).. 등에도
 계산기나 정부알림이, 캘린더까지는 존재하나
 대학 생활을 하며 느낀 필요한 것들에 대해서 담긴 어플은 없다.
 시장에서는 독점적인 입장이다.
@@ -2587,7 +2587,8 @@
         <v>45795.0</v>
       </c>
       <c r="G21" s="60">
-        <v>0.0</v>
+        <f t="shared" ref="G21:G22" si="2">DAYS360(E21,F21)</f>
+        <v>4</v>
       </c>
       <c r="H21" s="62">
         <v>0.5</v>
@@ -2662,7 +2663,8 @@
         <v>45795.0</v>
       </c>
       <c r="G22" s="60">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H22" s="82">
         <v>0.6</v>
@@ -2987,7 +2989,8 @@
         <v>45802.0</v>
       </c>
       <c r="G27" s="60">
-        <v>0.0</v>
+        <f t="shared" ref="G27:G29" si="3">DAYS360(E27,F27)</f>
+        <v>6</v>
       </c>
       <c r="H27" s="62">
         <v>0.3</v>
@@ -3062,7 +3065,8 @@
         <v>45802.0</v>
       </c>
       <c r="G28" s="60">
-        <v>0.0</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="H28" s="62">
         <v>0.8</v>
@@ -3137,7 +3141,8 @@
         <v>45809.0</v>
       </c>
       <c r="G29" s="60">
-        <v>0.0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H29" s="62">
         <v>0.3</v>
